--- a/UFJF.xlsx
+++ b/UFJF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louri\Documents\Unicamp\Contratação de Energia\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC811C6-1F03-4D27-B1D4-5569C12B851B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CE1C7-EB2D-4F10-A4D1-DF57293EF2D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1466,7 +1466,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3321,10 +3321,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X66" sqref="X66"/>
+      <selection pane="bottomRight" activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7738,7 +7738,7 @@
         <v>184</v>
       </c>
       <c r="V56" s="26">
-        <v>60400</v>
+        <v>21200</v>
       </c>
       <c r="W56" s="26">
         <v>202800</v>
@@ -8055,7 +8055,7 @@
         <v>18000</v>
       </c>
       <c r="W60" s="26">
-        <v>410800</v>
+        <v>168000</v>
       </c>
       <c r="X60" s="26"/>
       <c r="Y60" s="16" t="s">

--- a/UFJF.xlsx
+++ b/UFJF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louri\Documents\Unicamp\Contratação de Energia\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CE1C7-EB2D-4F10-A4D1-DF57293EF2D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96934E51-8F4E-4293-B36B-002049079F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="1" r:id="rId1"/>
@@ -1348,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,6 +1560,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3321,10 +3324,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y40" sqref="Y40"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3528,8 +3531,12 @@
         <v>384000</v>
       </c>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
+      <c r="AC2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>0</v>
+      </c>
       <c r="AE2" s="64"/>
     </row>
     <row r="3" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3604,8 +3611,12 @@
         <v>436800</v>
       </c>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>0</v>
+      </c>
       <c r="AE3" s="64"/>
     </row>
     <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3682,8 +3693,12 @@
         <v>399200</v>
       </c>
       <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
+      <c r="AC4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>0</v>
+      </c>
       <c r="AE4" s="64"/>
     </row>
     <row r="5" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3762,8 +3777,12 @@
       <c r="AB5" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
       <c r="AE5" s="64"/>
     </row>
     <row r="6" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3840,8 +3859,12 @@
       <c r="AB6" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="AC6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>0</v>
+      </c>
       <c r="AE6" s="64"/>
     </row>
     <row r="7" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3918,8 +3941,12 @@
       <c r="AB7" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
       <c r="AE7" s="64"/>
     </row>
     <row r="8" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3996,8 +4023,12 @@
         <v>572400</v>
       </c>
       <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
       <c r="AE8" s="64"/>
     </row>
     <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4074,8 +4105,12 @@
       <c r="AB9" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
       <c r="AE9" s="64"/>
     </row>
     <row r="10" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4152,8 +4187,12 @@
       <c r="AB10" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
       <c r="AE10" s="64"/>
     </row>
     <row r="11" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4230,8 +4269,12 @@
       <c r="AB11" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
       <c r="AE11" s="64"/>
     </row>
     <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4308,8 +4351,12 @@
       <c r="AB12" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
       <c r="AE12" s="64"/>
     </row>
     <row r="13" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4386,8 +4433,12 @@
       <c r="AB13" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
       <c r="AE13" s="64"/>
     </row>
     <row r="14" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4469,7 +4520,9 @@
       <c r="AC14" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="16">
+        <v>0</v>
+      </c>
       <c r="AE14" s="64"/>
     </row>
     <row r="15" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4549,7 +4602,9 @@
       <c r="AC15" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="AD15" s="16"/>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
       <c r="AE15" s="64"/>
     </row>
     <row r="16" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4629,7 +4684,9 @@
       <c r="AC16" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="AD16" s="16"/>
+      <c r="AD16" s="16">
+        <v>0</v>
+      </c>
       <c r="AE16" s="64"/>
     </row>
     <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4706,8 +4763,12 @@
       <c r="AB17" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="AC17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0</v>
+      </c>
       <c r="AE17" s="64"/>
     </row>
     <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4784,8 +4845,12 @@
       <c r="AB18" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
+      <c r="AC18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>0</v>
+      </c>
       <c r="AE18" s="64"/>
     </row>
     <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4864,8 +4929,12 @@
       <c r="AB19" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="AC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0</v>
+      </c>
       <c r="AE19" s="64"/>
     </row>
     <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4944,8 +5013,12 @@
       <c r="AB20" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
+      <c r="AC20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>0</v>
+      </c>
       <c r="AE20" s="64"/>
     </row>
     <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5025,7 +5098,9 @@
       <c r="AC21" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="AD21" s="16"/>
+      <c r="AD21" s="16">
+        <v>0</v>
+      </c>
       <c r="AE21" s="64"/>
     </row>
     <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5180,7 +5255,9 @@
       <c r="AB23" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC23" s="16"/>
+      <c r="AC23" s="16">
+        <v>0</v>
+      </c>
       <c r="AD23" s="22" t="s">
         <v>277</v>
       </c>
@@ -5260,7 +5337,9 @@
       <c r="AB24" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC24" s="16"/>
+      <c r="AC24" s="16">
+        <v>0</v>
+      </c>
       <c r="AD24" s="22" t="s">
         <v>278</v>
       </c>
@@ -5340,7 +5419,9 @@
       <c r="AB25" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AC25" s="16"/>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
       <c r="AD25" s="22" t="s">
         <v>279</v>
       </c>
@@ -5420,7 +5501,9 @@
       <c r="AB26" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="AC26" s="22"/>
+      <c r="AC26" s="22">
+        <v>0</v>
+      </c>
       <c r="AD26" s="22" t="s">
         <v>280</v>
       </c>
@@ -5581,7 +5664,9 @@
       <c r="AC28" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="AD28" s="16"/>
+      <c r="AD28" s="16">
+        <v>0</v>
+      </c>
       <c r="AE28" s="64"/>
     </row>
     <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5657,8 +5742,12 @@
       <c r="AB29" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
+      <c r="AC29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>0</v>
+      </c>
       <c r="AE29" s="64"/>
     </row>
     <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5734,8 +5823,12 @@
         <v>497600</v>
       </c>
       <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
       <c r="AE30" s="64"/>
     </row>
     <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5811,8 +5904,12 @@
         <v>574400</v>
       </c>
       <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
       <c r="AE31" s="64"/>
     </row>
     <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5888,7 +5985,9 @@
         <v>555600</v>
       </c>
       <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
       <c r="AD32" s="22" t="s">
         <v>282</v>
       </c>
@@ -5967,7 +6066,9 @@
       <c r="AB33" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="AC33" s="16"/>
+      <c r="AC33" s="16">
+        <v>0</v>
+      </c>
       <c r="AD33" s="22" t="s">
         <v>283</v>
       </c>
@@ -6046,7 +6147,9 @@
       <c r="AB34" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="AC34" s="16"/>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
       <c r="AD34" s="22" t="s">
         <v>284</v>
       </c>
@@ -6363,7 +6466,9 @@
       <c r="AC38" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="AD38" s="16"/>
+      <c r="AD38" s="16">
+        <v>0</v>
+      </c>
       <c r="AE38" s="64"/>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6439,7 +6544,9 @@
       <c r="AB39" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="AC39" s="16"/>
+      <c r="AC39" s="16">
+        <v>0</v>
+      </c>
       <c r="AD39" s="22" t="s">
         <v>288</v>
       </c>
@@ -6518,7 +6625,9 @@
       <c r="AB40" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AC40" s="16"/>
+      <c r="AC40" s="16">
+        <v>0</v>
+      </c>
       <c r="AD40" s="22" t="s">
         <v>289</v>
       </c>
@@ -6679,7 +6788,9 @@
       <c r="AC42" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="AD42" s="16"/>
+      <c r="AD42" s="16">
+        <v>0</v>
+      </c>
       <c r="AE42" s="64"/>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6755,8 +6866,12 @@
         <v>508000</v>
       </c>
       <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
+      <c r="AC43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="16">
+        <v>0</v>
+      </c>
       <c r="AE43" s="64"/>
     </row>
     <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6830,8 +6945,12 @@
         <v>474000</v>
       </c>
       <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
+      <c r="AC44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="16">
+        <v>0</v>
+      </c>
       <c r="AE44" s="64"/>
     </row>
     <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6910,6 +7029,9 @@
       <c r="AC45" s="22" t="s">
         <v>272</v>
       </c>
+      <c r="AD45" s="81">
+        <v>0</v>
+      </c>
       <c r="AE45" s="64"/>
     </row>
     <row r="46" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6988,6 +7110,9 @@
       <c r="AC46" s="22" t="s">
         <v>273</v>
       </c>
+      <c r="AD46" s="81">
+        <v>0</v>
+      </c>
       <c r="AE46" s="64"/>
     </row>
     <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7063,8 +7188,12 @@
       <c r="AB47" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
+      <c r="AC47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="16">
+        <v>0</v>
+      </c>
       <c r="AE47" s="64"/>
     </row>
     <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7140,8 +7269,12 @@
       <c r="AB48" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
+      <c r="AC48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="16">
+        <v>0</v>
+      </c>
       <c r="AE48" s="64"/>
     </row>
     <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7215,8 +7348,12 @@
         <v>569200</v>
       </c>
       <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
+      <c r="AC49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="16">
+        <v>0</v>
+      </c>
       <c r="AE49" s="64"/>
     </row>
     <row r="50" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7292,8 +7429,12 @@
       <c r="AB50" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
+      <c r="AC50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="16">
+        <v>0</v>
+      </c>
       <c r="AE50" s="64"/>
     </row>
     <row r="51" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7369,8 +7510,12 @@
       <c r="AB51" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
+      <c r="AC51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="16">
+        <v>0</v>
+      </c>
       <c r="AE51" s="64"/>
     </row>
     <row r="52" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7446,8 +7591,12 @@
       <c r="AB52" s="16">
         <v>18</v>
       </c>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
+      <c r="AC52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="16">
+        <v>0</v>
+      </c>
       <c r="AE52" s="64"/>
     </row>
     <row r="53" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7524,6 +7673,9 @@
       <c r="AC53" s="22" t="s">
         <v>274</v>
       </c>
+      <c r="AD53" s="81">
+        <v>0</v>
+      </c>
       <c r="AE53" s="64"/>
     </row>
     <row r="54" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7679,8 +7831,12 @@
       <c r="AB55" s="16">
         <v>18</v>
       </c>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
+      <c r="AC55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="16">
+        <v>0</v>
+      </c>
       <c r="AE55" s="64"/>
     </row>
     <row r="56" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7758,7 +7914,9 @@
       <c r="AB56" s="26">
         <v>18</v>
       </c>
-      <c r="AC56" s="26"/>
+      <c r="AC56" s="26">
+        <v>0</v>
+      </c>
       <c r="AD56" s="30" t="s">
         <v>292</v>
       </c>
@@ -7837,7 +7995,9 @@
       <c r="AB57" s="26">
         <v>18</v>
       </c>
-      <c r="AC57" s="26"/>
+      <c r="AC57" s="26">
+        <v>0</v>
+      </c>
       <c r="AD57" s="30" t="s">
         <v>293</v>
       </c>
@@ -7914,7 +8074,9 @@
         <v>528000</v>
       </c>
       <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
+      <c r="AC58" s="26">
+        <v>0</v>
+      </c>
       <c r="AD58" s="30" t="s">
         <v>294</v>
       </c>
@@ -7991,7 +8153,9 @@
         <v>459600</v>
       </c>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
+      <c r="AC59" s="26">
+        <v>0</v>
+      </c>
       <c r="AD59" s="30" t="s">
         <v>295</v>
       </c>
@@ -8068,7 +8232,9 @@
         <v>458400</v>
       </c>
       <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
+      <c r="AC60" s="26">
+        <v>0</v>
+      </c>
       <c r="AD60" s="30" t="s">
         <v>296</v>
       </c>
@@ -8145,7 +8311,9 @@
         <v>483200</v>
       </c>
       <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
+      <c r="AC61" s="41">
+        <v>0</v>
+      </c>
       <c r="AD61" s="41" t="s">
         <v>297</v>
       </c>

--- a/UFJF.xlsx
+++ b/UFJF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louri\Documents\Unicamp\Contratação de Energia\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96934E51-8F4E-4293-B36B-002049079F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BB858-F3C3-45B1-B6B3-AE63D20ADE53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3324,10 +3324,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8073,7 +8073,9 @@
       <c r="AA58" s="26">
         <v>528000</v>
       </c>
-      <c r="AB58" s="26"/>
+      <c r="AB58" s="26">
+        <v>18</v>
+      </c>
       <c r="AC58" s="26">
         <v>0</v>
       </c>
@@ -8152,7 +8154,9 @@
       <c r="AA59" s="26">
         <v>459600</v>
       </c>
-      <c r="AB59" s="26"/>
+      <c r="AB59" s="26">
+        <v>18</v>
+      </c>
       <c r="AC59" s="26">
         <v>0</v>
       </c>
@@ -8231,7 +8235,9 @@
       <c r="AA60" s="26">
         <v>458400</v>
       </c>
-      <c r="AB60" s="26"/>
+      <c r="AB60" s="26">
+        <v>18</v>
+      </c>
       <c r="AC60" s="26">
         <v>0</v>
       </c>
@@ -8310,7 +8316,9 @@
       <c r="AA61" s="41">
         <v>483200</v>
       </c>
-      <c r="AB61" s="41"/>
+      <c r="AB61" s="41">
+        <v>18</v>
+      </c>
       <c r="AC61" s="41">
         <v>0</v>
       </c>
